--- a/Assets/B4/import_temp.xlsx
+++ b/Assets/B4/import_temp.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gal-n\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SERVICES TECHNIQUES\Responsable\site web demande d' intervention\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07130664-9380-41EB-99D3-CD9D9DD4A736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6F8E0263-873C-4E10-9871-5917D3969E28}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$E$795</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="155">
   <si>
     <t xml:space="preserve">ALBATROS   LOCALISATION </t>
   </si>
@@ -44,12 +35,12 @@
     <t xml:space="preserve">SITE </t>
   </si>
   <si>
+    <t>LIEU</t>
+  </si>
+  <si>
     <t>BATIMENT</t>
   </si>
   <si>
-    <t>LIEU</t>
-  </si>
-  <si>
     <t>PETITE CHAPELLE</t>
   </si>
   <si>
@@ -62,56 +53,470 @@
     <t>entrée devant le sas</t>
   </si>
   <si>
+    <t>salle à manger</t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">local dame </t>
+  </si>
+  <si>
+    <t>wc entrée avec urinoires</t>
+  </si>
+  <si>
+    <t>vestaire</t>
+  </si>
+  <si>
+    <t>garage</t>
+  </si>
+  <si>
+    <t>chaufferie</t>
+  </si>
+  <si>
+    <t>coin lecture / jeux</t>
+  </si>
+  <si>
+    <t>couloir d' entrée avec les fauteuils</t>
+  </si>
+  <si>
+    <t>couloir devant ch éduc à bureau éduc</t>
+  </si>
+  <si>
+    <t>couloir devant ch 1 à ch 5</t>
+  </si>
+  <si>
+    <t>couloir du fond devant ch 17 à ch 12</t>
+  </si>
+  <si>
+    <t>chambre 1</t>
+  </si>
+  <si>
+    <t>chambre 2</t>
+  </si>
+  <si>
+    <t>chambre 3</t>
+  </si>
+  <si>
+    <t>chambre 4</t>
+  </si>
+  <si>
+    <t>chambre 5</t>
+  </si>
+  <si>
+    <t>chambre 6</t>
+  </si>
+  <si>
+    <t>chambre 7</t>
+  </si>
+  <si>
+    <t>chambre 8</t>
+  </si>
+  <si>
+    <t>chambre 9</t>
+  </si>
+  <si>
+    <t>chambre 10</t>
+  </si>
+  <si>
+    <t>chambre 11</t>
+  </si>
+  <si>
+    <t>chambre 12</t>
+  </si>
+  <si>
+    <t>chambre 13</t>
+  </si>
+  <si>
+    <t>chambre 14</t>
+  </si>
+  <si>
+    <t>chambre 15</t>
+  </si>
+  <si>
+    <t>chambre 16</t>
+  </si>
+  <si>
+    <t>chambre 17</t>
+  </si>
+  <si>
+    <t>chambre 18</t>
+  </si>
+  <si>
+    <t>salon tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingerie </t>
+  </si>
+  <si>
+    <t>chambre éducateur</t>
+  </si>
+  <si>
+    <t>bureau éducateur</t>
+  </si>
+  <si>
+    <t>salle de bain garçons</t>
+  </si>
+  <si>
+    <t>salle de bain filles</t>
+  </si>
+  <si>
+    <t>buanderie salle de bain garçons</t>
+  </si>
+  <si>
+    <t>salle de bain éducateur</t>
+  </si>
+  <si>
+    <t>étage local détente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lieu non repris ci-dessus </t>
+  </si>
+  <si>
+    <t>salle polyvalante sortie vers  terrasse</t>
+  </si>
+  <si>
     <t>SOURCE</t>
   </si>
   <si>
+    <t>réserve cuisine</t>
+  </si>
+  <si>
     <t>hall d' entrée</t>
   </si>
   <si>
+    <t>lingerie</t>
+  </si>
+  <si>
+    <t>local stock lingerie</t>
+  </si>
+  <si>
+    <t>compteur électrique</t>
+  </si>
+  <si>
+    <t>chaufferie à rue</t>
+  </si>
+  <si>
+    <t>deux wc avant le vestaire</t>
+  </si>
+  <si>
     <t>local langes entrée</t>
   </si>
   <si>
+    <t>hall d' entrée cuisine</t>
+  </si>
+  <si>
+    <t>local dame</t>
+  </si>
+  <si>
+    <t>local lave vaisselle</t>
+  </si>
+  <si>
+    <t>petite salle à manger cuisine</t>
+  </si>
+  <si>
+    <t>grande salle à manger</t>
+  </si>
+  <si>
+    <t>couloir entre les deux salles à manger</t>
+  </si>
+  <si>
+    <t>tunnel vitré</t>
+  </si>
+  <si>
+    <t>ch1</t>
+  </si>
+  <si>
+    <t>ch2</t>
+  </si>
+  <si>
+    <t>ch3</t>
+  </si>
+  <si>
+    <t>ch4</t>
+  </si>
+  <si>
+    <t>ch5</t>
+  </si>
+  <si>
+    <t>ch6</t>
+  </si>
+  <si>
+    <t>ch7</t>
+  </si>
+  <si>
+    <t>ch8</t>
+  </si>
+  <si>
+    <t>ch9</t>
+  </si>
+  <si>
+    <t>ch10</t>
+  </si>
+  <si>
+    <t>ch11</t>
+  </si>
+  <si>
+    <t>ch12</t>
+  </si>
+  <si>
+    <t>ch13</t>
+  </si>
+  <si>
+    <t>ch14</t>
+  </si>
+  <si>
+    <t>ch15</t>
+  </si>
+  <si>
+    <t>ch16</t>
+  </si>
+  <si>
+    <t>ch17</t>
+  </si>
+  <si>
+    <t>ch18</t>
+  </si>
+  <si>
+    <t>ch19</t>
+  </si>
+  <si>
+    <t>ch20</t>
+  </si>
+  <si>
+    <t>ch21</t>
+  </si>
+  <si>
+    <t>ch22</t>
+  </si>
+  <si>
+    <t>couloir devant ch11 à ch22</t>
+  </si>
+  <si>
+    <t>couloir entre la ch9 à ch19</t>
+  </si>
+  <si>
+    <t>couloir devant ch19 à ch16</t>
+  </si>
+  <si>
+    <t>couloir entre la ch22 à ch16</t>
+  </si>
+  <si>
+    <t>couloir devant ch éduc à bureau infi</t>
+  </si>
+  <si>
+    <t>couloir vers sdd</t>
+  </si>
+  <si>
+    <t>couloir devant bureau infi à ch 1 du fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand salon tv bas </t>
+  </si>
+  <si>
+    <t>ch éduc</t>
+  </si>
+  <si>
+    <t>4 wc vers lingerie</t>
+  </si>
+  <si>
+    <t>couloir devant les 4 wc</t>
+  </si>
+  <si>
+    <t>local technique à coté des 4 wc et lingerie</t>
+  </si>
+  <si>
+    <t>lingerie garçons</t>
+  </si>
+  <si>
+    <t>lingerie filles</t>
+  </si>
+  <si>
+    <t>bureau secrétaire</t>
+  </si>
+  <si>
+    <t>bureau infirmerie</t>
+  </si>
+  <si>
+    <t>couloir vers pharmacie</t>
+  </si>
+  <si>
+    <t>pharmacie</t>
+  </si>
+  <si>
+    <t>wc de droite vers sdd</t>
+  </si>
+  <si>
+    <t>wc de gauche vers sdd</t>
+  </si>
+  <si>
+    <t>local en entrant vers le local lit douche</t>
+  </si>
+  <si>
+    <t>local lit douche</t>
+  </si>
+  <si>
+    <t>sdd garçons</t>
+  </si>
+  <si>
+    <t>sdd filles</t>
+  </si>
+  <si>
+    <t>chaufferie bas pour sdd</t>
+  </si>
+  <si>
+    <t>étage hall</t>
+  </si>
+  <si>
+    <t>étage vestiaire personnel</t>
+  </si>
+  <si>
+    <t>étage réserve</t>
+  </si>
+  <si>
+    <t>étage wc / douche</t>
+  </si>
+  <si>
+    <t>étage grenier</t>
+  </si>
+  <si>
+    <t>autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">car port </t>
+  </si>
+  <si>
+    <t>local à coté de la chaufferie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hall d' entrée </t>
+  </si>
+  <si>
+    <t>couloir devant wc pmr et wc éduc</t>
+  </si>
+  <si>
+    <t>wc pmr</t>
+  </si>
+  <si>
+    <t>wc éduc</t>
+  </si>
+  <si>
+    <t>pièce accueil devant wc pmr</t>
+  </si>
+  <si>
+    <t>rangement à coté du bureau éduc</t>
+  </si>
+  <si>
+    <t>couloir activités</t>
+  </si>
+  <si>
+    <t xml:space="preserve">première pièce activité à droite </t>
+  </si>
+  <si>
+    <t>deuxième pièce bien être baignoire à droite</t>
+  </si>
+  <si>
+    <t>wc pmr activité</t>
+  </si>
+  <si>
+    <t>pièce à gauche snoezelen</t>
+  </si>
+  <si>
+    <t>étage metzaninne</t>
+  </si>
+  <si>
+    <t>étage pièce de rangement</t>
+  </si>
+  <si>
+    <t>étage comble avec gp dessus cuisine</t>
+  </si>
+  <si>
+    <t>étage comble avec gp dessus activité</t>
+  </si>
+  <si>
+    <t>étage comble avec gp dessus couloir de nuit</t>
+  </si>
+  <si>
+    <t>sas vers chambre</t>
+  </si>
+  <si>
+    <t>couloir devant pièce d' apaisement</t>
+  </si>
+  <si>
+    <t>couloir chambre</t>
+  </si>
+  <si>
+    <t>sdd7</t>
+  </si>
+  <si>
+    <t>sdd1</t>
+  </si>
+  <si>
+    <t>sdd2</t>
+  </si>
+  <si>
+    <t>sdd3</t>
+  </si>
+  <si>
+    <t>sdd4</t>
+  </si>
+  <si>
+    <t>sdd5</t>
+  </si>
+  <si>
+    <t>sdd6</t>
+  </si>
+  <si>
+    <t>sdd8</t>
+  </si>
+  <si>
+    <t>sdd9</t>
+  </si>
+  <si>
+    <t>local apaisement</t>
+  </si>
+  <si>
+    <t>local technique couloir chambres</t>
+  </si>
+  <si>
+    <t>lingerie sale</t>
+  </si>
+  <si>
+    <t>lingerie / rangement</t>
+  </si>
+  <si>
+    <t>sdd10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cave </t>
+  </si>
+  <si>
     <t>ESPIEGLERIE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">car port </t>
-  </si>
-  <si>
-    <t>chaufferie</t>
-  </si>
-  <si>
-    <t>TEST SITE</t>
-  </si>
-  <si>
-    <t>TEST BATIMENT</t>
-  </si>
-  <si>
-    <t>TEST LIEU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -124,7 +529,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -188,9 +593,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -202,6 +605,17 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -242,8 +656,27 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -255,15 +688,27 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -273,13 +718,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -308,39 +746,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -373,26 +811,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -425,23 +846,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -503,6 +907,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -511,13 +922,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -582,153 +986,4983 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBB97A3-63D1-47C0-8236-0321943819B3}">
-  <dimension ref="B1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:D791"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B783" sqref="B783"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:4" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B4" s="4" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="s">
+    <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D118" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="124" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D141" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D144" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D154" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D155" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D156" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D157" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D161" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D164" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D165" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D166" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D167" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D168" s="6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D169" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="5"/>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="6"/>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="6"/>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="6"/>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="6"/>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="6"/>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="6"/>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="6"/>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="6"/>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="6"/>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="6"/>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="6"/>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="6"/>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="6"/>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="6"/>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="6"/>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="6"/>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="6"/>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="6"/>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="6"/>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="6"/>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="6"/>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="6"/>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="6"/>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="6"/>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="6"/>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="6"/>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="6"/>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="6"/>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="6"/>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="6"/>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="6"/>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="6"/>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="6"/>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="6"/>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="6"/>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="6"/>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="6"/>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="6"/>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="6"/>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="6"/>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="6"/>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="6"/>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="6"/>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="6"/>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="6"/>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="6"/>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="6"/>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="6"/>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="6"/>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="6"/>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="6"/>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="6"/>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="6"/>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="6"/>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="6"/>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="6"/>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="6"/>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="6"/>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="6"/>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="6"/>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="6"/>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="6"/>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="6"/>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="6"/>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="6"/>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="6"/>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="6"/>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="6"/>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="6"/>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="6"/>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="6"/>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="6"/>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="6"/>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="6"/>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="6"/>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+      <c r="D265" s="6"/>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+      <c r="D266" s="6"/>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+      <c r="D267" s="6"/>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+      <c r="D268" s="6"/>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+      <c r="D269" s="6"/>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+      <c r="D270" s="6"/>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="6"/>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+      <c r="D272" s="6"/>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+      <c r="D273" s="6"/>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+      <c r="D274" s="6"/>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+      <c r="D275" s="6"/>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+      <c r="D276" s="6"/>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+      <c r="D277" s="6"/>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+      <c r="D278" s="6"/>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+      <c r="D279" s="6"/>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+      <c r="D280" s="6"/>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="6"/>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+      <c r="D282" s="6"/>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+      <c r="D283" s="6"/>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+      <c r="D284" s="6"/>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+      <c r="D285" s="6"/>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+      <c r="D286" s="6"/>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+      <c r="D287" s="6"/>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="6"/>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+      <c r="D289" s="6"/>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+      <c r="D290" s="6"/>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+      <c r="D291" s="6"/>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+      <c r="D292" s="6"/>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+      <c r="D293" s="6"/>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+      <c r="D294" s="6"/>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+      <c r="D295" s="6"/>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+      <c r="D296" s="6"/>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+      <c r="D297" s="6"/>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+      <c r="D298" s="6"/>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+      <c r="D299" s="6"/>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+      <c r="D300" s="6"/>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="6"/>
+    </row>
+    <row r="302" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+      <c r="D302" s="6"/>
+    </row>
+    <row r="303" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+      <c r="D303" s="6"/>
+    </row>
+    <row r="304" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+      <c r="D304" s="6"/>
+    </row>
+    <row r="305" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="6"/>
+    </row>
+    <row r="306" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+      <c r="D306" s="6"/>
+    </row>
+    <row r="307" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+      <c r="D307" s="6"/>
+    </row>
+    <row r="308" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+      <c r="D308" s="6"/>
+    </row>
+    <row r="309" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+      <c r="D309" s="6"/>
+    </row>
+    <row r="310" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+      <c r="D310" s="6"/>
+    </row>
+    <row r="311" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+      <c r="D311" s="6"/>
+    </row>
+    <row r="312" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+      <c r="D312" s="6"/>
+    </row>
+    <row r="313" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+      <c r="D313" s="6"/>
+    </row>
+    <row r="314" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+      <c r="D314" s="6"/>
+    </row>
+    <row r="315" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+      <c r="D315" s="6"/>
+    </row>
+    <row r="316" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+      <c r="D316" s="6"/>
+    </row>
+    <row r="317" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+      <c r="D317" s="6"/>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+      <c r="D318" s="6"/>
+    </row>
+    <row r="319" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+      <c r="D319" s="6"/>
+    </row>
+    <row r="320" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+      <c r="D320" s="6"/>
+    </row>
+    <row r="321" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+      <c r="D321" s="6"/>
+    </row>
+    <row r="322" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+      <c r="D322" s="6"/>
+    </row>
+    <row r="323" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+      <c r="D323" s="6"/>
+    </row>
+    <row r="324" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+      <c r="D324" s="6"/>
+    </row>
+    <row r="325" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+      <c r="D325" s="6"/>
+    </row>
+    <row r="326" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+      <c r="D326" s="6"/>
+    </row>
+    <row r="327" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="6"/>
+    </row>
+    <row r="328" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+      <c r="D328" s="6"/>
+    </row>
+    <row r="329" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+      <c r="D329" s="6"/>
+    </row>
+    <row r="330" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+      <c r="D330" s="6"/>
+    </row>
+    <row r="331" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+      <c r="D331" s="6"/>
+    </row>
+    <row r="332" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+      <c r="D332" s="6"/>
+    </row>
+    <row r="333" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+      <c r="D333" s="6"/>
+    </row>
+    <row r="334" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="6"/>
+    </row>
+    <row r="335" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+      <c r="D335" s="6"/>
+    </row>
+    <row r="336" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+      <c r="D336" s="6"/>
+    </row>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+      <c r="D337" s="6"/>
+    </row>
+    <row r="338" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+      <c r="D338" s="6"/>
+    </row>
+    <row r="339" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+      <c r="D339" s="6"/>
+    </row>
+    <row r="340" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+      <c r="D340" s="6"/>
+    </row>
+    <row r="341" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+      <c r="D341" s="6"/>
+    </row>
+    <row r="342" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+      <c r="D342" s="6"/>
+    </row>
+    <row r="343" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+      <c r="D343" s="6"/>
+    </row>
+    <row r="344" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+      <c r="D344" s="6"/>
+    </row>
+    <row r="345" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+      <c r="D345" s="6"/>
+    </row>
+    <row r="346" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+      <c r="D346" s="6"/>
+    </row>
+    <row r="347" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+      <c r="D347" s="6"/>
+    </row>
+    <row r="348" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+      <c r="D348" s="6"/>
+    </row>
+    <row r="349" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+      <c r="D349" s="6"/>
+    </row>
+    <row r="350" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+      <c r="D350" s="6"/>
+    </row>
+    <row r="351" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+      <c r="D351" s="6"/>
+    </row>
+    <row r="352" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+      <c r="D352" s="6"/>
+    </row>
+    <row r="353" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+      <c r="D353" s="6"/>
+    </row>
+    <row r="354" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+      <c r="D354" s="6"/>
+    </row>
+    <row r="355" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+      <c r="D355" s="6"/>
+    </row>
+    <row r="356" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+      <c r="D356" s="6"/>
+    </row>
+    <row r="357" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+      <c r="D357" s="6"/>
+    </row>
+    <row r="358" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+      <c r="D358" s="6"/>
+    </row>
+    <row r="359" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+      <c r="D359" s="6"/>
+    </row>
+    <row r="360" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+      <c r="D360" s="6"/>
+    </row>
+    <row r="361" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+      <c r="D361" s="6"/>
+    </row>
+    <row r="362" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+      <c r="D362" s="6"/>
+    </row>
+    <row r="363" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+      <c r="D363" s="6"/>
+    </row>
+    <row r="364" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+      <c r="D364" s="6"/>
+    </row>
+    <row r="365" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+      <c r="D365" s="6"/>
+    </row>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+      <c r="D366" s="6"/>
+    </row>
+    <row r="367" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+      <c r="D367" s="6"/>
+    </row>
+    <row r="368" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+      <c r="D368" s="6"/>
+    </row>
+    <row r="369" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+      <c r="D369" s="6"/>
+    </row>
+    <row r="370" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+      <c r="D370" s="6"/>
+    </row>
+    <row r="371" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+      <c r="D371" s="6"/>
+    </row>
+    <row r="372" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+      <c r="D372" s="6"/>
+    </row>
+    <row r="373" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+      <c r="D373" s="6"/>
+    </row>
+    <row r="374" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+      <c r="D374" s="6"/>
+    </row>
+    <row r="375" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+      <c r="D375" s="6"/>
+    </row>
+    <row r="376" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+      <c r="D376" s="6"/>
+    </row>
+    <row r="377" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="6"/>
+    </row>
+    <row r="378" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+      <c r="D378" s="6"/>
+    </row>
+    <row r="379" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+      <c r="D379" s="6"/>
+    </row>
+    <row r="380" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+      <c r="D380" s="6"/>
+    </row>
+    <row r="381" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+      <c r="D381" s="6"/>
+    </row>
+    <row r="382" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+      <c r="D382" s="6"/>
+    </row>
+    <row r="383" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+      <c r="D383" s="6"/>
+    </row>
+    <row r="384" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+      <c r="D384" s="6"/>
+    </row>
+    <row r="385" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+      <c r="D385" s="6"/>
+    </row>
+    <row r="386" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="6"/>
+    </row>
+    <row r="387" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+      <c r="D387" s="6"/>
+    </row>
+    <row r="388" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+      <c r="D388" s="6"/>
+    </row>
+    <row r="389" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+      <c r="D389" s="6"/>
+    </row>
+    <row r="390" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+      <c r="D390" s="6"/>
+    </row>
+    <row r="391" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="6"/>
+    </row>
+    <row r="392" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+      <c r="D392" s="6"/>
+    </row>
+    <row r="393" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+      <c r="D393" s="6"/>
+    </row>
+    <row r="394" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="6"/>
+    </row>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+      <c r="D395" s="6"/>
+    </row>
+    <row r="396" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+      <c r="D396" s="6"/>
+    </row>
+    <row r="397" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+      <c r="D397" s="6"/>
+    </row>
+    <row r="398" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+      <c r="D398" s="6"/>
+    </row>
+    <row r="399" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+      <c r="D399" s="6"/>
+    </row>
+    <row r="400" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+      <c r="D400" s="6"/>
+    </row>
+    <row r="401" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+      <c r="D401" s="6"/>
+    </row>
+    <row r="402" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+      <c r="D402" s="6"/>
+    </row>
+    <row r="403" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+      <c r="D403" s="6"/>
+    </row>
+    <row r="404" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+      <c r="D404" s="6"/>
+    </row>
+    <row r="405" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="6"/>
+    </row>
+    <row r="406" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+      <c r="D406" s="6"/>
+    </row>
+    <row r="407" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+      <c r="D407" s="6"/>
+    </row>
+    <row r="408" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+      <c r="D408" s="6"/>
+    </row>
+    <row r="409" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+      <c r="D409" s="6"/>
+    </row>
+    <row r="410" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+      <c r="D410" s="6"/>
+    </row>
+    <row r="411" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+      <c r="D411" s="6"/>
+    </row>
+    <row r="412" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+      <c r="D412" s="6"/>
+    </row>
+    <row r="413" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+      <c r="D413" s="6"/>
+    </row>
+    <row r="414" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+      <c r="D414" s="6"/>
+    </row>
+    <row r="415" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+      <c r="D415" s="6"/>
+    </row>
+    <row r="416" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+      <c r="D416" s="6"/>
+    </row>
+    <row r="417" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+      <c r="D417" s="6"/>
+    </row>
+    <row r="418" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+      <c r="D418" s="6"/>
+    </row>
+    <row r="419" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+      <c r="D419" s="6"/>
+    </row>
+    <row r="420" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+      <c r="D420" s="6"/>
+    </row>
+    <row r="421" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+      <c r="D421" s="6"/>
+    </row>
+    <row r="422" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+      <c r="D422" s="6"/>
+    </row>
+    <row r="423" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+      <c r="D423" s="6"/>
+    </row>
+    <row r="424" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+      <c r="D424" s="6"/>
+    </row>
+    <row r="425" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+      <c r="D425" s="6"/>
+    </row>
+    <row r="426" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+      <c r="D426" s="6"/>
+    </row>
+    <row r="427" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+      <c r="D427" s="6"/>
+    </row>
+    <row r="428" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+      <c r="D428" s="6"/>
+    </row>
+    <row r="429" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+      <c r="D429" s="6"/>
+    </row>
+    <row r="430" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+      <c r="D430" s="6"/>
+    </row>
+    <row r="431" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+      <c r="D431" s="6"/>
+    </row>
+    <row r="432" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+      <c r="D432" s="6"/>
+    </row>
+    <row r="433" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+      <c r="D433" s="6"/>
+    </row>
+    <row r="434" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+      <c r="D434" s="6"/>
+    </row>
+    <row r="435" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+      <c r="D435" s="6"/>
+    </row>
+    <row r="436" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+      <c r="D436" s="6"/>
+    </row>
+    <row r="437" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+      <c r="D437" s="6"/>
+    </row>
+    <row r="438" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+      <c r="D438" s="6"/>
+    </row>
+    <row r="439" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+      <c r="D439" s="6"/>
+    </row>
+    <row r="440" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+      <c r="D440" s="6"/>
+    </row>
+    <row r="441" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+      <c r="D441" s="6"/>
+    </row>
+    <row r="442" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+      <c r="D442" s="6"/>
+    </row>
+    <row r="443" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+      <c r="D443" s="6"/>
+    </row>
+    <row r="444" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+      <c r="D444" s="6"/>
+    </row>
+    <row r="445" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+      <c r="D445" s="6"/>
+    </row>
+    <row r="446" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+      <c r="D446" s="6"/>
+    </row>
+    <row r="447" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+      <c r="D447" s="6"/>
+    </row>
+    <row r="448" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+      <c r="D448" s="6"/>
+    </row>
+    <row r="449" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+      <c r="D449" s="6"/>
+    </row>
+    <row r="450" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+      <c r="D450" s="6"/>
+    </row>
+    <row r="451" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+      <c r="D451" s="6"/>
+    </row>
+    <row r="452" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+      <c r="D452" s="6"/>
+    </row>
+    <row r="453" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+      <c r="D453" s="6"/>
+    </row>
+    <row r="454" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
+      <c r="D454" s="6"/>
+    </row>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
+      <c r="D455" s="6"/>
+    </row>
+    <row r="456" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
+      <c r="D456" s="6"/>
+    </row>
+    <row r="457" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+      <c r="D457" s="6"/>
+    </row>
+    <row r="458" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+      <c r="D458" s="6"/>
+    </row>
+    <row r="459" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+      <c r="D459" s="6"/>
+    </row>
+    <row r="460" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+      <c r="D460" s="6"/>
+    </row>
+    <row r="461" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+      <c r="D461" s="6"/>
+    </row>
+    <row r="462" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
+      <c r="D462" s="6"/>
+    </row>
+    <row r="463" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+      <c r="D463" s="6"/>
+    </row>
+    <row r="464" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+      <c r="D464" s="6"/>
+    </row>
+    <row r="465" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+      <c r="D465" s="6"/>
+    </row>
+    <row r="466" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B466" s="3"/>
+      <c r="C466" s="3"/>
+      <c r="D466" s="6"/>
+    </row>
+    <row r="467" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B467" s="3"/>
+      <c r="C467" s="3"/>
+      <c r="D467" s="6"/>
+    </row>
+    <row r="468" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="6"/>
+    </row>
+    <row r="469" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B469" s="3"/>
+      <c r="C469" s="3"/>
+      <c r="D469" s="6"/>
+    </row>
+    <row r="470" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B470" s="3"/>
+      <c r="C470" s="3"/>
+      <c r="D470" s="6"/>
+    </row>
+    <row r="471" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B471" s="3"/>
+      <c r="C471" s="3"/>
+      <c r="D471" s="6"/>
+    </row>
+    <row r="472" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B472" s="3"/>
+      <c r="C472" s="3"/>
+      <c r="D472" s="6"/>
+    </row>
+    <row r="473" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B473" s="3"/>
+      <c r="C473" s="3"/>
+      <c r="D473" s="6"/>
+    </row>
+    <row r="474" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B474" s="3"/>
+      <c r="C474" s="3"/>
+      <c r="D474" s="6"/>
+    </row>
+    <row r="475" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B475" s="3"/>
+      <c r="C475" s="3"/>
+      <c r="D475" s="6"/>
+    </row>
+    <row r="476" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B476" s="3"/>
+      <c r="C476" s="3"/>
+      <c r="D476" s="6"/>
+    </row>
+    <row r="477" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
+      <c r="D477" s="6"/>
+    </row>
+    <row r="478" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B478" s="3"/>
+      <c r="C478" s="3"/>
+      <c r="D478" s="6"/>
+    </row>
+    <row r="479" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B479" s="3"/>
+      <c r="C479" s="3"/>
+      <c r="D479" s="6"/>
+    </row>
+    <row r="480" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
+      <c r="D480" s="6"/>
+    </row>
+    <row r="481" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B481" s="3"/>
+      <c r="C481" s="3"/>
+      <c r="D481" s="6"/>
+    </row>
+    <row r="482" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B482" s="3"/>
+      <c r="C482" s="3"/>
+      <c r="D482" s="6"/>
+    </row>
+    <row r="483" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B483" s="3"/>
+      <c r="C483" s="3"/>
+      <c r="D483" s="6"/>
+    </row>
+    <row r="484" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B484" s="3"/>
+      <c r="C484" s="3"/>
+      <c r="D484" s="6"/>
+    </row>
+    <row r="485" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
+      <c r="D485" s="6"/>
+    </row>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B486" s="3"/>
+      <c r="C486" s="3"/>
+      <c r="D486" s="6"/>
+    </row>
+    <row r="487" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B487" s="3"/>
+      <c r="C487" s="3"/>
+      <c r="D487" s="6"/>
+    </row>
+    <row r="488" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
+      <c r="D488" s="6"/>
+    </row>
+    <row r="489" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B489" s="3"/>
+      <c r="C489" s="3"/>
+      <c r="D489" s="6"/>
+    </row>
+    <row r="490" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B490" s="3"/>
+      <c r="C490" s="3"/>
+      <c r="D490" s="6"/>
+    </row>
+    <row r="491" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="3"/>
+      <c r="C491" s="3"/>
+      <c r="D491" s="6"/>
+    </row>
+    <row r="492" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="3"/>
+      <c r="C492" s="3"/>
+      <c r="D492" s="6"/>
+    </row>
+    <row r="493" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="3"/>
+      <c r="C493" s="3"/>
+      <c r="D493" s="6"/>
+    </row>
+    <row r="494" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
+      <c r="D494" s="6"/>
+    </row>
+    <row r="495" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="3"/>
+      <c r="C495" s="3"/>
+      <c r="D495" s="6"/>
+    </row>
+    <row r="496" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="3"/>
+      <c r="C496" s="3"/>
+      <c r="D496" s="6"/>
+    </row>
+    <row r="497" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B497" s="3"/>
+      <c r="C497" s="3"/>
+      <c r="D497" s="6"/>
+    </row>
+    <row r="498" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B498" s="3"/>
+      <c r="C498" s="3"/>
+      <c r="D498" s="6"/>
+    </row>
+    <row r="499" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B499" s="3"/>
+      <c r="C499" s="3"/>
+      <c r="D499" s="6"/>
+    </row>
+    <row r="500" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B500" s="3"/>
+      <c r="C500" s="3"/>
+      <c r="D500" s="6"/>
+    </row>
+    <row r="501" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B501" s="3"/>
+      <c r="C501" s="3"/>
+      <c r="D501" s="6"/>
+    </row>
+    <row r="502" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B502" s="3"/>
+      <c r="C502" s="3"/>
+      <c r="D502" s="6"/>
+    </row>
+    <row r="503" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B503" s="3"/>
+      <c r="C503" s="3"/>
+      <c r="D503" s="6"/>
+    </row>
+    <row r="504" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
+      <c r="D504" s="6"/>
+    </row>
+    <row r="505" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B505" s="3"/>
+      <c r="C505" s="3"/>
+      <c r="D505" s="6"/>
+    </row>
+    <row r="506" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B506" s="3"/>
+      <c r="C506" s="3"/>
+      <c r="D506" s="6"/>
+    </row>
+    <row r="507" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B507" s="3"/>
+      <c r="C507" s="3"/>
+      <c r="D507" s="6"/>
+    </row>
+    <row r="508" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B508" s="3"/>
+      <c r="C508" s="3"/>
+      <c r="D508" s="6"/>
+    </row>
+    <row r="509" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B509" s="3"/>
+      <c r="C509" s="3"/>
+      <c r="D509" s="6"/>
+    </row>
+    <row r="510" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B510" s="3"/>
+      <c r="C510" s="3"/>
+      <c r="D510" s="6"/>
+    </row>
+    <row r="511" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B511" s="3"/>
+      <c r="C511" s="3"/>
+      <c r="D511" s="6"/>
+    </row>
+    <row r="512" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B512" s="3"/>
+      <c r="C512" s="3"/>
+      <c r="D512" s="6"/>
+    </row>
+    <row r="513" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
+      <c r="D513" s="6"/>
+    </row>
+    <row r="514" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B514" s="3"/>
+      <c r="C514" s="3"/>
+      <c r="D514" s="6"/>
+    </row>
+    <row r="515" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B515" s="3"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="6"/>
+    </row>
+    <row r="516" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B516" s="3"/>
+      <c r="C516" s="3"/>
+      <c r="D516" s="6"/>
+    </row>
+    <row r="517" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B517" s="3"/>
+      <c r="C517" s="3"/>
+      <c r="D517" s="6"/>
+    </row>
+    <row r="518" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B518" s="3"/>
+      <c r="C518" s="3"/>
+      <c r="D518" s="6"/>
+    </row>
+    <row r="519" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B519" s="3"/>
+      <c r="C519" s="3"/>
+      <c r="D519" s="6"/>
+    </row>
+    <row r="520" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B520" s="3"/>
+      <c r="C520" s="3"/>
+      <c r="D520" s="6"/>
+    </row>
+    <row r="521" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B521" s="3"/>
+      <c r="C521" s="3"/>
+      <c r="D521" s="6"/>
+    </row>
+    <row r="522" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B522" s="3"/>
+      <c r="C522" s="3"/>
+      <c r="D522" s="6"/>
+    </row>
+    <row r="523" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B523" s="3"/>
+      <c r="C523" s="3"/>
+      <c r="D523" s="6"/>
+    </row>
+    <row r="524" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B524" s="3"/>
+      <c r="C524" s="3"/>
+      <c r="D524" s="6"/>
+    </row>
+    <row r="525" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B525" s="3"/>
+      <c r="C525" s="3"/>
+      <c r="D525" s="6"/>
+    </row>
+    <row r="526" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="6"/>
+    </row>
+    <row r="527" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B527" s="3"/>
+      <c r="C527" s="3"/>
+      <c r="D527" s="6"/>
+    </row>
+    <row r="528" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B528" s="3"/>
+      <c r="C528" s="3"/>
+      <c r="D528" s="6"/>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B529" s="3"/>
+      <c r="C529" s="3"/>
+      <c r="D529" s="6"/>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B530" s="3"/>
+      <c r="C530" s="3"/>
+      <c r="D530" s="6"/>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B531" s="3"/>
+      <c r="C531" s="3"/>
+      <c r="D531" s="6"/>
+    </row>
+    <row r="532" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B532" s="3"/>
+      <c r="C532" s="3"/>
+      <c r="D532" s="6"/>
+    </row>
+    <row r="533" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
+      <c r="D533" s="6"/>
+    </row>
+    <row r="534" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B534" s="3"/>
+      <c r="C534" s="3"/>
+      <c r="D534" s="6"/>
+    </row>
+    <row r="535" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B535" s="3"/>
+      <c r="C535" s="3"/>
+      <c r="D535" s="6"/>
+    </row>
+    <row r="536" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B536" s="3"/>
+      <c r="C536" s="3"/>
+      <c r="D536" s="6"/>
+    </row>
+    <row r="537" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
+      <c r="D537" s="6"/>
+    </row>
+    <row r="538" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B538" s="3"/>
+      <c r="C538" s="3"/>
+      <c r="D538" s="6"/>
+    </row>
+    <row r="539" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B539" s="3"/>
+      <c r="C539" s="3"/>
+      <c r="D539" s="6"/>
+    </row>
+    <row r="540" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B540" s="3"/>
+      <c r="C540" s="3"/>
+      <c r="D540" s="6"/>
+    </row>
+    <row r="541" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B541" s="3"/>
+      <c r="C541" s="3"/>
+      <c r="D541" s="6"/>
+    </row>
+    <row r="542" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B542" s="3"/>
+      <c r="C542" s="3"/>
+      <c r="D542" s="6"/>
+    </row>
+    <row r="543" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B543" s="3"/>
+      <c r="C543" s="3"/>
+      <c r="D543" s="6"/>
+    </row>
+    <row r="544" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B544" s="3"/>
+      <c r="C544" s="3"/>
+      <c r="D544" s="6"/>
+    </row>
+    <row r="545" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B545" s="3"/>
+      <c r="C545" s="3"/>
+      <c r="D545" s="6"/>
+    </row>
+    <row r="546" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B546" s="3"/>
+      <c r="C546" s="3"/>
+      <c r="D546" s="6"/>
+    </row>
+    <row r="547" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B547" s="3"/>
+      <c r="C547" s="3"/>
+      <c r="D547" s="6"/>
+    </row>
+    <row r="548" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B548" s="3"/>
+      <c r="C548" s="3"/>
+      <c r="D548" s="6"/>
+    </row>
+    <row r="549" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B549" s="3"/>
+      <c r="C549" s="3"/>
+      <c r="D549" s="6"/>
+    </row>
+    <row r="550" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B550" s="3"/>
+      <c r="C550" s="3"/>
+      <c r="D550" s="6"/>
+    </row>
+    <row r="551" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B551" s="3"/>
+      <c r="C551" s="3"/>
+      <c r="D551" s="6"/>
+    </row>
+    <row r="552" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B552" s="3"/>
+      <c r="C552" s="3"/>
+      <c r="D552" s="6"/>
+    </row>
+    <row r="553" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B553" s="3"/>
+      <c r="C553" s="3"/>
+      <c r="D553" s="6"/>
+    </row>
+    <row r="554" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B554" s="3"/>
+      <c r="C554" s="3"/>
+      <c r="D554" s="6"/>
+    </row>
+    <row r="555" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B555" s="3"/>
+      <c r="C555" s="3"/>
+      <c r="D555" s="6"/>
+    </row>
+    <row r="556" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B556" s="3"/>
+      <c r="C556" s="3"/>
+      <c r="D556" s="6"/>
+    </row>
+    <row r="557" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B557" s="3"/>
+      <c r="C557" s="3"/>
+      <c r="D557" s="6"/>
+    </row>
+    <row r="558" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
+      <c r="D558" s="6"/>
+    </row>
+    <row r="559" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B559" s="3"/>
+      <c r="C559" s="3"/>
+      <c r="D559" s="6"/>
+    </row>
+    <row r="560" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B560" s="3"/>
+      <c r="C560" s="3"/>
+      <c r="D560" s="6"/>
+    </row>
+    <row r="561" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B561" s="3"/>
+      <c r="C561" s="3"/>
+      <c r="D561" s="6"/>
+    </row>
+    <row r="562" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
+      <c r="D562" s="6"/>
+    </row>
+    <row r="563" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B563" s="3"/>
+      <c r="C563" s="3"/>
+      <c r="D563" s="6"/>
+    </row>
+    <row r="564" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B564" s="3"/>
+      <c r="C564" s="3"/>
+      <c r="D564" s="6"/>
+    </row>
+    <row r="565" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B565" s="3"/>
+      <c r="C565" s="3"/>
+      <c r="D565" s="6"/>
+    </row>
+    <row r="566" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B566" s="3"/>
+      <c r="C566" s="3"/>
+      <c r="D566" s="6"/>
+    </row>
+    <row r="567" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B567" s="3"/>
+      <c r="C567" s="3"/>
+      <c r="D567" s="6"/>
+    </row>
+    <row r="568" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B568" s="3"/>
+      <c r="C568" s="3"/>
+      <c r="D568" s="6"/>
+    </row>
+    <row r="569" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B569" s="3"/>
+      <c r="C569" s="3"/>
+      <c r="D569" s="6"/>
+    </row>
+    <row r="570" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B570" s="3"/>
+      <c r="C570" s="3"/>
+      <c r="D570" s="6"/>
+    </row>
+    <row r="571" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B571" s="3"/>
+      <c r="C571" s="3"/>
+      <c r="D571" s="6"/>
+    </row>
+    <row r="572" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B572" s="3"/>
+      <c r="C572" s="3"/>
+      <c r="D572" s="6"/>
+    </row>
+    <row r="573" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B573" s="3"/>
+      <c r="C573" s="3"/>
+      <c r="D573" s="6"/>
+    </row>
+    <row r="574" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B574" s="3"/>
+      <c r="C574" s="3"/>
+      <c r="D574" s="6"/>
+    </row>
+    <row r="575" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B575" s="3"/>
+      <c r="C575" s="3"/>
+      <c r="D575" s="6"/>
+    </row>
+    <row r="576" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B576" s="3"/>
+      <c r="C576" s="3"/>
+      <c r="D576" s="6"/>
+    </row>
+    <row r="577" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B577" s="3"/>
+      <c r="C577" s="3"/>
+      <c r="D577" s="6"/>
+    </row>
+    <row r="578" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
+      <c r="D578" s="6"/>
+    </row>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B579" s="3"/>
+      <c r="C579" s="3"/>
+      <c r="D579" s="6"/>
+    </row>
+    <row r="580" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B580" s="3"/>
+      <c r="C580" s="3"/>
+      <c r="D580" s="6"/>
+    </row>
+    <row r="581" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B581" s="3"/>
+      <c r="C581" s="3"/>
+      <c r="D581" s="6"/>
+    </row>
+    <row r="582" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B582" s="3"/>
+      <c r="C582" s="3"/>
+      <c r="D582" s="6"/>
+    </row>
+    <row r="583" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B583" s="3"/>
+      <c r="C583" s="3"/>
+      <c r="D583" s="6"/>
+    </row>
+    <row r="584" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
+      <c r="D584" s="6"/>
+    </row>
+    <row r="585" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B585" s="3"/>
+      <c r="C585" s="3"/>
+      <c r="D585" s="6"/>
+    </row>
+    <row r="586" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B586" s="3"/>
+      <c r="C586" s="3"/>
+      <c r="D586" s="6"/>
+    </row>
+    <row r="587" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B587" s="3"/>
+      <c r="C587" s="3"/>
+      <c r="D587" s="6"/>
+    </row>
+    <row r="588" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B588" s="3"/>
+      <c r="C588" s="3"/>
+      <c r="D588" s="6"/>
+    </row>
+    <row r="589" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B589" s="3"/>
+      <c r="C589" s="3"/>
+      <c r="D589" s="6"/>
+    </row>
+    <row r="590" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B590" s="3"/>
+      <c r="C590" s="3"/>
+      <c r="D590" s="6"/>
+    </row>
+    <row r="591" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B591" s="3"/>
+      <c r="C591" s="3"/>
+      <c r="D591" s="6"/>
+    </row>
+    <row r="592" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
+      <c r="D592" s="6"/>
+    </row>
+    <row r="593" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B593" s="3"/>
+      <c r="C593" s="3"/>
+      <c r="D593" s="6"/>
+    </row>
+    <row r="594" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B594" s="3"/>
+      <c r="C594" s="3"/>
+      <c r="D594" s="6"/>
+    </row>
+    <row r="595" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
+      <c r="D595" s="6"/>
+    </row>
+    <row r="596" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B596" s="3"/>
+      <c r="C596" s="3"/>
+      <c r="D596" s="6"/>
+    </row>
+    <row r="597" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B597" s="3"/>
+      <c r="C597" s="3"/>
+      <c r="D597" s="6"/>
+    </row>
+    <row r="598" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B598" s="3"/>
+      <c r="C598" s="3"/>
+      <c r="D598" s="6"/>
+    </row>
+    <row r="599" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B599" s="3"/>
+      <c r="C599" s="3"/>
+      <c r="D599" s="6"/>
+    </row>
+    <row r="600" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B600" s="3"/>
+      <c r="C600" s="3"/>
+      <c r="D600" s="6"/>
+    </row>
+    <row r="601" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B601" s="3"/>
+      <c r="C601" s="3"/>
+      <c r="D601" s="6"/>
+    </row>
+    <row r="602" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B602" s="3"/>
+      <c r="C602" s="3"/>
+      <c r="D602" s="6"/>
+    </row>
+    <row r="603" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B603" s="3"/>
+      <c r="C603" s="3"/>
+      <c r="D603" s="6"/>
+    </row>
+    <row r="604" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B604" s="3"/>
+      <c r="C604" s="3"/>
+      <c r="D604" s="6"/>
+    </row>
+    <row r="605" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B605" s="3"/>
+      <c r="C605" s="3"/>
+      <c r="D605" s="6"/>
+    </row>
+    <row r="606" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
+      <c r="D606" s="6"/>
+    </row>
+    <row r="607" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B607" s="3"/>
+      <c r="C607" s="3"/>
+      <c r="D607" s="6"/>
+    </row>
+    <row r="608" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B608" s="3"/>
+      <c r="C608" s="3"/>
+      <c r="D608" s="6"/>
+    </row>
+    <row r="609" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B609" s="3"/>
+      <c r="C609" s="3"/>
+      <c r="D609" s="6"/>
+    </row>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B610" s="3"/>
+      <c r="C610" s="3"/>
+      <c r="D610" s="6"/>
+    </row>
+    <row r="611" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B611" s="3"/>
+      <c r="C611" s="3"/>
+      <c r="D611" s="6"/>
+    </row>
+    <row r="612" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B612" s="3"/>
+      <c r="C612" s="3"/>
+      <c r="D612" s="6"/>
+    </row>
+    <row r="613" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B613" s="3"/>
+      <c r="C613" s="3"/>
+      <c r="D613" s="6"/>
+    </row>
+    <row r="614" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B614" s="3"/>
+      <c r="C614" s="3"/>
+      <c r="D614" s="6"/>
+    </row>
+    <row r="615" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B615" s="3"/>
+      <c r="C615" s="3"/>
+      <c r="D615" s="6"/>
+    </row>
+    <row r="616" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B616" s="3"/>
+      <c r="C616" s="3"/>
+      <c r="D616" s="6"/>
+    </row>
+    <row r="617" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
+      <c r="D617" s="6"/>
+    </row>
+    <row r="618" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B618" s="3"/>
+      <c r="C618" s="3"/>
+      <c r="D618" s="6"/>
+    </row>
+    <row r="619" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B619" s="3"/>
+      <c r="C619" s="3"/>
+      <c r="D619" s="6"/>
+    </row>
+    <row r="620" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B620" s="3"/>
+      <c r="C620" s="3"/>
+      <c r="D620" s="6"/>
+    </row>
+    <row r="621" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B621" s="3"/>
+      <c r="C621" s="3"/>
+      <c r="D621" s="6"/>
+    </row>
+    <row r="622" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B622" s="3"/>
+      <c r="C622" s="3"/>
+      <c r="D622" s="6"/>
+    </row>
+    <row r="623" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B623" s="3"/>
+      <c r="C623" s="3"/>
+      <c r="D623" s="6"/>
+    </row>
+    <row r="624" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B624" s="3"/>
+      <c r="C624" s="3"/>
+      <c r="D624" s="6"/>
+    </row>
+    <row r="625" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B625" s="3"/>
+      <c r="C625" s="3"/>
+      <c r="D625" s="6"/>
+    </row>
+    <row r="626" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B626" s="3"/>
+      <c r="C626" s="3"/>
+      <c r="D626" s="6"/>
+    </row>
+    <row r="627" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B627" s="3"/>
+      <c r="C627" s="3"/>
+      <c r="D627" s="6"/>
+    </row>
+    <row r="628" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B628" s="3"/>
+      <c r="C628" s="3"/>
+      <c r="D628" s="6"/>
+    </row>
+    <row r="629" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B629" s="3"/>
+      <c r="C629" s="3"/>
+      <c r="D629" s="6"/>
+    </row>
+    <row r="630" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B630" s="3"/>
+      <c r="C630" s="3"/>
+      <c r="D630" s="6"/>
+    </row>
+    <row r="631" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B631" s="3"/>
+      <c r="C631" s="3"/>
+      <c r="D631" s="6"/>
+    </row>
+    <row r="632" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B632" s="3"/>
+      <c r="C632" s="3"/>
+      <c r="D632" s="6"/>
+    </row>
+    <row r="633" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
+      <c r="D633" s="6"/>
+    </row>
+    <row r="634" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B634" s="3"/>
+      <c r="C634" s="3"/>
+      <c r="D634" s="6"/>
+    </row>
+    <row r="635" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B635" s="3"/>
+      <c r="C635" s="3"/>
+      <c r="D635" s="6"/>
+    </row>
+    <row r="636" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B636" s="3"/>
+      <c r="C636" s="3"/>
+      <c r="D636" s="6"/>
+    </row>
+    <row r="637" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B637" s="3"/>
+      <c r="C637" s="3"/>
+      <c r="D637" s="6"/>
+    </row>
+    <row r="638" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B638" s="3"/>
+      <c r="C638" s="3"/>
+      <c r="D638" s="6"/>
+    </row>
+    <row r="639" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B639" s="3"/>
+      <c r="C639" s="3"/>
+      <c r="D639" s="6"/>
+    </row>
+    <row r="640" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B640" s="3"/>
+      <c r="C640" s="3"/>
+      <c r="D640" s="6"/>
+    </row>
+    <row r="641" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B641" s="3"/>
+      <c r="C641" s="3"/>
+      <c r="D641" s="6"/>
+    </row>
+    <row r="642" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B642" s="3"/>
+      <c r="C642" s="3"/>
+      <c r="D642" s="6"/>
+    </row>
+    <row r="643" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B643" s="3"/>
+      <c r="C643" s="3"/>
+      <c r="D643" s="6"/>
+    </row>
+    <row r="644" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B644" s="3"/>
+      <c r="C644" s="3"/>
+      <c r="D644" s="6"/>
+    </row>
+    <row r="645" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B645" s="3"/>
+      <c r="C645" s="3"/>
+      <c r="D645" s="6"/>
+    </row>
+    <row r="646" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B646" s="3"/>
+      <c r="C646" s="3"/>
+      <c r="D646" s="6"/>
+    </row>
+    <row r="647" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B647" s="3"/>
+      <c r="C647" s="3"/>
+      <c r="D647" s="6"/>
+    </row>
+    <row r="648" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
+      <c r="D648" s="6"/>
+    </row>
+    <row r="649" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B649" s="3"/>
+      <c r="C649" s="3"/>
+      <c r="D649" s="6"/>
+    </row>
+    <row r="650" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B650" s="3"/>
+      <c r="C650" s="3"/>
+      <c r="D650" s="6"/>
+    </row>
+    <row r="651" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B651" s="3"/>
+      <c r="C651" s="3"/>
+      <c r="D651" s="6"/>
+    </row>
+    <row r="652" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B652" s="3"/>
+      <c r="C652" s="3"/>
+      <c r="D652" s="6"/>
+    </row>
+    <row r="653" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B653" s="3"/>
+      <c r="C653" s="3"/>
+      <c r="D653" s="6"/>
+    </row>
+    <row r="654" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B654" s="3"/>
+      <c r="C654" s="3"/>
+      <c r="D654" s="6"/>
+    </row>
+    <row r="655" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B655" s="3"/>
+      <c r="C655" s="3"/>
+      <c r="D655" s="6"/>
+    </row>
+    <row r="656" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B656" s="3"/>
+      <c r="C656" s="3"/>
+      <c r="D656" s="6"/>
+    </row>
+    <row r="657" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B657" s="3"/>
+      <c r="C657" s="3"/>
+      <c r="D657" s="6"/>
+    </row>
+    <row r="658" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B658" s="3"/>
+      <c r="C658" s="3"/>
+      <c r="D658" s="6"/>
+    </row>
+    <row r="659" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B659" s="3"/>
+      <c r="C659" s="3"/>
+      <c r="D659" s="6"/>
+    </row>
+    <row r="660" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B660" s="3"/>
+      <c r="C660" s="3"/>
+      <c r="D660" s="6"/>
+    </row>
+    <row r="661" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B661" s="3"/>
+      <c r="C661" s="3"/>
+      <c r="D661" s="6"/>
+    </row>
+    <row r="662" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B662" s="3"/>
+      <c r="C662" s="3"/>
+      <c r="D662" s="6"/>
+    </row>
+    <row r="663" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B663" s="3"/>
+      <c r="C663" s="3"/>
+      <c r="D663" s="6"/>
+    </row>
+    <row r="664" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B664" s="3"/>
+      <c r="C664" s="3"/>
+      <c r="D664" s="6"/>
+    </row>
+    <row r="665" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B665" s="3"/>
+      <c r="C665" s="3"/>
+      <c r="D665" s="6"/>
+    </row>
+    <row r="666" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B666" s="3"/>
+      <c r="C666" s="3"/>
+      <c r="D666" s="6"/>
+    </row>
+    <row r="667" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B667" s="3"/>
+      <c r="C667" s="3"/>
+      <c r="D667" s="6"/>
+    </row>
+    <row r="668" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B668" s="3"/>
+      <c r="C668" s="3"/>
+      <c r="D668" s="6"/>
+    </row>
+    <row r="669" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B669" s="3"/>
+      <c r="C669" s="3"/>
+      <c r="D669" s="6"/>
+    </row>
+    <row r="670" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B670" s="3"/>
+      <c r="C670" s="3"/>
+      <c r="D670" s="6"/>
+    </row>
+    <row r="671" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B671" s="3"/>
+      <c r="C671" s="3"/>
+      <c r="D671" s="6"/>
+    </row>
+    <row r="672" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B672" s="3"/>
+      <c r="C672" s="3"/>
+      <c r="D672" s="6"/>
+    </row>
+    <row r="673" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B673" s="3"/>
+      <c r="C673" s="3"/>
+      <c r="D673" s="6"/>
+    </row>
+    <row r="674" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B674" s="3"/>
+      <c r="C674" s="3"/>
+      <c r="D674" s="6"/>
+    </row>
+    <row r="675" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B675" s="3"/>
+      <c r="C675" s="3"/>
+      <c r="D675" s="6"/>
+    </row>
+    <row r="676" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B676" s="3"/>
+      <c r="C676" s="3"/>
+      <c r="D676" s="6"/>
+    </row>
+    <row r="677" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B677" s="3"/>
+      <c r="C677" s="3"/>
+      <c r="D677" s="6"/>
+    </row>
+    <row r="678" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B678" s="3"/>
+      <c r="C678" s="3"/>
+      <c r="D678" s="6"/>
+    </row>
+    <row r="679" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B679" s="3"/>
+      <c r="C679" s="3"/>
+      <c r="D679" s="6"/>
+    </row>
+    <row r="680" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B680" s="3"/>
+      <c r="C680" s="3"/>
+      <c r="D680" s="6"/>
+    </row>
+    <row r="681" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B681" s="3"/>
+      <c r="C681" s="3"/>
+      <c r="D681" s="6"/>
+    </row>
+    <row r="682" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B682" s="3"/>
+      <c r="C682" s="3"/>
+      <c r="D682" s="6"/>
+    </row>
+    <row r="683" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B683" s="3"/>
+      <c r="C683" s="3"/>
+      <c r="D683" s="6"/>
+    </row>
+    <row r="684" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B684" s="3"/>
+      <c r="C684" s="3"/>
+      <c r="D684" s="6"/>
+    </row>
+    <row r="685" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B685" s="3"/>
+      <c r="C685" s="3"/>
+      <c r="D685" s="6"/>
+    </row>
+    <row r="686" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B686" s="3"/>
+      <c r="C686" s="3"/>
+      <c r="D686" s="6"/>
+    </row>
+    <row r="687" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B687" s="3"/>
+      <c r="C687" s="3"/>
+      <c r="D687" s="6"/>
+    </row>
+    <row r="688" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B688" s="3"/>
+      <c r="C688" s="3"/>
+      <c r="D688" s="6"/>
+    </row>
+    <row r="689" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B689" s="3"/>
+      <c r="C689" s="3"/>
+      <c r="D689" s="6"/>
+    </row>
+    <row r="690" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B690" s="3"/>
+      <c r="C690" s="3"/>
+      <c r="D690" s="6"/>
+    </row>
+    <row r="691" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B691" s="3"/>
+      <c r="C691" s="3"/>
+      <c r="D691" s="6"/>
+    </row>
+    <row r="692" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B692" s="3"/>
+      <c r="C692" s="3"/>
+      <c r="D692" s="6"/>
+    </row>
+    <row r="693" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B693" s="3"/>
+      <c r="C693" s="3"/>
+      <c r="D693" s="6"/>
+    </row>
+    <row r="694" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B694" s="3"/>
+      <c r="C694" s="3"/>
+      <c r="D694" s="6"/>
+    </row>
+    <row r="695" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B695" s="3"/>
+      <c r="C695" s="3"/>
+      <c r="D695" s="6"/>
+    </row>
+    <row r="696" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B696" s="3"/>
+      <c r="C696" s="3"/>
+      <c r="D696" s="6"/>
+    </row>
+    <row r="697" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B697" s="3"/>
+      <c r="C697" s="3"/>
+      <c r="D697" s="6"/>
+    </row>
+    <row r="698" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B698" s="3"/>
+      <c r="C698" s="3"/>
+      <c r="D698" s="6"/>
+    </row>
+    <row r="699" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B699" s="3"/>
+      <c r="C699" s="3"/>
+      <c r="D699" s="6"/>
+    </row>
+    <row r="700" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B700" s="3"/>
+      <c r="C700" s="3"/>
+      <c r="D700" s="6"/>
+    </row>
+    <row r="701" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B701" s="3"/>
+      <c r="C701" s="3"/>
+      <c r="D701" s="6"/>
+    </row>
+    <row r="702" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B702" s="3"/>
+      <c r="C702" s="3"/>
+      <c r="D702" s="6"/>
+    </row>
+    <row r="703" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B703" s="3"/>
+      <c r="C703" s="3"/>
+      <c r="D703" s="6"/>
+    </row>
+    <row r="704" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B704" s="3"/>
+      <c r="C704" s="3"/>
+      <c r="D704" s="6"/>
+    </row>
+    <row r="705" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B705" s="3"/>
+      <c r="C705" s="3"/>
+      <c r="D705" s="6"/>
+    </row>
+    <row r="706" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B706" s="3"/>
+      <c r="C706" s="3"/>
+      <c r="D706" s="6"/>
+    </row>
+    <row r="707" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B707" s="3"/>
+      <c r="C707" s="3"/>
+      <c r="D707" s="6"/>
+    </row>
+    <row r="708" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B708" s="3"/>
+      <c r="C708" s="3"/>
+      <c r="D708" s="6"/>
+    </row>
+    <row r="709" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B709" s="3"/>
+      <c r="C709" s="3"/>
+      <c r="D709" s="6"/>
+    </row>
+    <row r="710" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B710" s="3"/>
+      <c r="C710" s="3"/>
+      <c r="D710" s="6"/>
+    </row>
+    <row r="711" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B711" s="3"/>
+      <c r="C711" s="3"/>
+      <c r="D711" s="6"/>
+    </row>
+    <row r="712" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B712" s="3"/>
+      <c r="C712" s="3"/>
+      <c r="D712" s="6"/>
+    </row>
+    <row r="713" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B713" s="3"/>
+      <c r="C713" s="3"/>
+      <c r="D713" s="6"/>
+    </row>
+    <row r="714" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B714" s="3"/>
+      <c r="C714" s="3"/>
+      <c r="D714" s="6"/>
+    </row>
+    <row r="715" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B715" s="3"/>
+      <c r="C715" s="3"/>
+      <c r="D715" s="6"/>
+    </row>
+    <row r="716" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B716" s="3"/>
+      <c r="C716" s="3"/>
+      <c r="D716" s="6"/>
+    </row>
+    <row r="717" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B717" s="3"/>
+      <c r="C717" s="3"/>
+      <c r="D717" s="6"/>
+    </row>
+    <row r="718" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B718" s="3"/>
+      <c r="C718" s="3"/>
+      <c r="D718" s="6"/>
+    </row>
+    <row r="719" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B719" s="3"/>
+      <c r="C719" s="3"/>
+      <c r="D719" s="6"/>
+    </row>
+    <row r="720" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B720" s="3"/>
+      <c r="C720" s="3"/>
+      <c r="D720" s="6"/>
+    </row>
+    <row r="721" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B721" s="3"/>
+      <c r="C721" s="3"/>
+      <c r="D721" s="6"/>
+    </row>
+    <row r="722" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B722" s="3"/>
+      <c r="C722" s="3"/>
+      <c r="D722" s="6"/>
+    </row>
+    <row r="723" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B723" s="3"/>
+      <c r="C723" s="3"/>
+      <c r="D723" s="6"/>
+    </row>
+    <row r="724" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B724" s="3"/>
+      <c r="C724" s="3"/>
+      <c r="D724" s="6"/>
+    </row>
+    <row r="725" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B725" s="3"/>
+      <c r="C725" s="3"/>
+      <c r="D725" s="6"/>
+    </row>
+    <row r="726" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B726" s="3"/>
+      <c r="C726" s="3"/>
+      <c r="D726" s="6"/>
+    </row>
+    <row r="727" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B727" s="3"/>
+      <c r="C727" s="3"/>
+      <c r="D727" s="6"/>
+    </row>
+    <row r="728" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B728" s="3"/>
+      <c r="C728" s="3"/>
+      <c r="D728" s="6"/>
+    </row>
+    <row r="729" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B729" s="3"/>
+      <c r="C729" s="3"/>
+      <c r="D729" s="6"/>
+    </row>
+    <row r="730" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B730" s="3"/>
+      <c r="C730" s="3"/>
+      <c r="D730" s="6"/>
+    </row>
+    <row r="731" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B731" s="3"/>
+      <c r="C731" s="3"/>
+      <c r="D731" s="6"/>
+    </row>
+    <row r="732" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B732" s="3"/>
+      <c r="C732" s="3"/>
+      <c r="D732" s="6"/>
+    </row>
+    <row r="733" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B733" s="3"/>
+      <c r="C733" s="3"/>
+      <c r="D733" s="6"/>
+    </row>
+    <row r="734" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B734" s="3"/>
+      <c r="C734" s="3"/>
+      <c r="D734" s="6"/>
+    </row>
+    <row r="735" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B735" s="3"/>
+      <c r="C735" s="3"/>
+      <c r="D735" s="6"/>
+    </row>
+    <row r="736" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B736" s="3"/>
+      <c r="C736" s="3"/>
+      <c r="D736" s="6"/>
+    </row>
+    <row r="737" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B737" s="3"/>
+      <c r="C737" s="3"/>
+      <c r="D737" s="6"/>
+    </row>
+    <row r="738" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B738" s="3"/>
+      <c r="C738" s="3"/>
+      <c r="D738" s="6"/>
+    </row>
+    <row r="739" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B739" s="3"/>
+      <c r="C739" s="3"/>
+      <c r="D739" s="6"/>
+    </row>
+    <row r="740" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B740" s="3"/>
+      <c r="C740" s="3"/>
+      <c r="D740" s="6"/>
+    </row>
+    <row r="741" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B741" s="3"/>
+      <c r="C741" s="3"/>
+      <c r="D741" s="6"/>
+    </row>
+    <row r="742" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B742" s="3"/>
+      <c r="C742" s="3"/>
+      <c r="D742" s="6"/>
+    </row>
+    <row r="743" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B743" s="3"/>
+      <c r="C743" s="3"/>
+      <c r="D743" s="6"/>
+    </row>
+    <row r="744" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B744" s="3"/>
+      <c r="C744" s="3"/>
+      <c r="D744" s="6"/>
+    </row>
+    <row r="745" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B745" s="3"/>
+      <c r="C745" s="3"/>
+      <c r="D745" s="6"/>
+    </row>
+    <row r="746" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B746" s="3"/>
+      <c r="C746" s="3"/>
+      <c r="D746" s="6"/>
+    </row>
+    <row r="747" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B747" s="3"/>
+      <c r="C747" s="3"/>
+      <c r="D747" s="6"/>
+    </row>
+    <row r="748" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B748" s="3"/>
+      <c r="C748" s="3"/>
+      <c r="D748" s="6"/>
+    </row>
+    <row r="749" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B749" s="3"/>
+      <c r="C749" s="3"/>
+      <c r="D749" s="6"/>
+    </row>
+    <row r="750" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B750" s="3"/>
+      <c r="C750" s="3"/>
+      <c r="D750" s="6"/>
+    </row>
+    <row r="751" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B751" s="3"/>
+      <c r="C751" s="3"/>
+      <c r="D751" s="6"/>
+    </row>
+    <row r="752" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B752" s="3"/>
+      <c r="C752" s="3"/>
+      <c r="D752" s="6"/>
+    </row>
+    <row r="753" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B753" s="3"/>
+      <c r="C753" s="3"/>
+      <c r="D753" s="6"/>
+    </row>
+    <row r="754" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B754" s="3"/>
+      <c r="C754" s="3"/>
+      <c r="D754" s="6"/>
+    </row>
+    <row r="755" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B755" s="3"/>
+      <c r="C755" s="3"/>
+      <c r="D755" s="6"/>
+    </row>
+    <row r="756" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B756" s="3"/>
+      <c r="C756" s="3"/>
+      <c r="D756" s="6"/>
+    </row>
+    <row r="757" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B757" s="3"/>
+      <c r="C757" s="3"/>
+      <c r="D757" s="6"/>
+    </row>
+    <row r="758" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B758" s="3"/>
+      <c r="C758" s="3"/>
+      <c r="D758" s="6"/>
+    </row>
+    <row r="759" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B759" s="3"/>
+      <c r="C759" s="3"/>
+      <c r="D759" s="6"/>
+    </row>
+    <row r="760" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B760" s="3"/>
+      <c r="C760" s="3"/>
+      <c r="D760" s="6"/>
+    </row>
+    <row r="761" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B761" s="3"/>
+      <c r="C761" s="3"/>
+      <c r="D761" s="6"/>
+    </row>
+    <row r="762" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B762" s="3"/>
+      <c r="C762" s="3"/>
+      <c r="D762" s="6"/>
+    </row>
+    <row r="763" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B763" s="3"/>
+      <c r="C763" s="3"/>
+      <c r="D763" s="6"/>
+    </row>
+    <row r="764" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B764" s="3"/>
+      <c r="C764" s="3"/>
+      <c r="D764" s="6"/>
+    </row>
+    <row r="765" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B765" s="3"/>
+      <c r="C765" s="3"/>
+      <c r="D765" s="6"/>
+    </row>
+    <row r="766" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B766" s="3"/>
+      <c r="C766" s="3"/>
+      <c r="D766" s="6"/>
+    </row>
+    <row r="767" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B767" s="3"/>
+      <c r="C767" s="3"/>
+      <c r="D767" s="6"/>
+    </row>
+    <row r="768" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B768" s="3"/>
+      <c r="C768" s="3"/>
+      <c r="D768" s="6"/>
+    </row>
+    <row r="769" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B769" s="3"/>
+      <c r="C769" s="3"/>
+      <c r="D769" s="6"/>
+    </row>
+    <row r="770" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B770" s="3"/>
+      <c r="C770" s="3"/>
+      <c r="D770" s="6"/>
+    </row>
+    <row r="771" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B771" s="3"/>
+      <c r="C771" s="3"/>
+      <c r="D771" s="6"/>
+    </row>
+    <row r="772" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B772" s="3"/>
+      <c r="C772" s="3"/>
+      <c r="D772" s="6"/>
+    </row>
+    <row r="773" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B773" s="3"/>
+      <c r="C773" s="3"/>
+      <c r="D773" s="6"/>
+    </row>
+    <row r="774" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B774" s="3"/>
+      <c r="C774" s="3"/>
+      <c r="D774" s="6"/>
+    </row>
+    <row r="775" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B775" s="3"/>
+      <c r="C775" s="3"/>
+      <c r="D775" s="6"/>
+    </row>
+    <row r="776" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B776" s="3"/>
+      <c r="C776" s="3"/>
+      <c r="D776" s="6"/>
+    </row>
+    <row r="777" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B777" s="3"/>
+      <c r="C777" s="3"/>
+      <c r="D777" s="6"/>
+    </row>
+    <row r="778" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B778" s="3"/>
+      <c r="C778" s="3"/>
+      <c r="D778" s="6"/>
+    </row>
+    <row r="779" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B779" s="3"/>
+      <c r="C779" s="3"/>
+      <c r="D779" s="6"/>
+    </row>
+    <row r="780" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B780" s="3"/>
+      <c r="C780" s="3"/>
+      <c r="D780" s="6"/>
+    </row>
+    <row r="781" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B781" s="3"/>
+      <c r="C781" s="3"/>
+      <c r="D781" s="6"/>
+    </row>
+    <row r="782" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B782" s="3"/>
+      <c r="C782" s="3"/>
+      <c r="D782" s="6"/>
+    </row>
+    <row r="783" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B783" s="3"/>
+      <c r="C783" s="3"/>
+      <c r="D783" s="6"/>
+    </row>
+    <row r="784" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B784" s="3"/>
+      <c r="C784" s="3"/>
+      <c r="D784" s="6"/>
+    </row>
+    <row r="785" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B785" s="3"/>
+      <c r="C785" s="3"/>
+      <c r="D785" s="6"/>
+    </row>
+    <row r="786" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B786" s="3"/>
+      <c r="C786" s="3"/>
+      <c r="D786" s="6"/>
+    </row>
+    <row r="787" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B787" s="3"/>
+      <c r="C787" s="3"/>
+      <c r="D787" s="6"/>
+    </row>
+    <row r="788" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B788" s="3"/>
+      <c r="C788" s="3"/>
+      <c r="D788" s="6"/>
+    </row>
+    <row r="789" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B789" s="3"/>
+      <c r="C789" s="3"/>
+      <c r="D789" s="6"/>
+    </row>
+    <row r="790" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B790" s="3"/>
+      <c r="C790" s="3"/>
+      <c r="D790" s="6"/>
+    </row>
+    <row r="791" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B791" s="3"/>
+      <c r="C791" s="3"/>
+      <c r="D791" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>